--- a/currentbuild/StructureDefinition-NorskPasient.xlsx
+++ b/currentbuild/StructureDefinition-NorskPasient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T13:10:41+00:00</t>
+    <t>2025-03-24T14:09:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-NorskPasient.xlsx
+++ b/currentbuild/StructureDefinition-NorskPasient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T14:09:32+00:00</t>
+    <t>2025-04-01T08:20:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-NorskPasient.xlsx
+++ b/currentbuild/StructureDefinition-NorskPasient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-01T08:20:48+00:00</t>
+    <t>2025-04-01T08:25:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
